--- a/documentation/build.xlsx
+++ b/documentation/build.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Documents\GitHub\Corona_Cam\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Documents\GitHub\corona_cam\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AF36D8-6668-4F29-B950-BCF14A73E592}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA234234-D3F6-4B8F-8818-891872158AC3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BFA8654B-9BE4-4811-B5B6-CC71729ADED4}"/>
   </bookViews>
@@ -938,6 +938,18 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -963,18 +975,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1296,7 +1296,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1317,9 +1317,9 @@
       <c r="A1" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="90">
+      <c r="B1" s="81">
         <f>SUM(F4:F25)</f>
-        <v>347.95</v>
+        <v>350.9</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -1355,16 +1355,16 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="93"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="84"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
@@ -1505,11 +1505,11 @@
         <v>2.95</v>
       </c>
       <c r="E9" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="7">
         <f t="shared" si="0"/>
-        <v>2.95</v>
+        <v>5.9</v>
       </c>
       <c r="G9" s="23" t="s">
         <v>78</v>
@@ -1916,16 +1916,16 @@
     </row>
     <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="89"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="93"/>
     </row>
     <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="49" t="s">
@@ -2011,16 +2011,16 @@
     </row>
     <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="81" t="s">
+      <c r="A34" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="82"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="83"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="87"/>
     </row>
     <row r="35" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="60" t="s">
@@ -2102,16 +2102,16 @@
     </row>
     <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="84" t="s">
+      <c r="A41" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="85"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="86"/>
+      <c r="B41" s="89"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="89"/>
+      <c r="H41" s="90"/>
     </row>
     <row r="42" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="70" t="s">

--- a/documentation/build.xlsx
+++ b/documentation/build.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Documents\GitHub\corona_cam\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA234234-D3F6-4B8F-8818-891872158AC3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCD36E8-699C-41E9-877C-4F1883A2D319}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BFA8654B-9BE4-4811-B5B6-CC71729ADED4}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="108">
   <si>
     <t>Part</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Adafruit PiRTC - DS3231</t>
   </si>
   <si>
-    <t>Zero2Go Omini Multi-Channel Power Supply</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -271,9 +268,6 @@
   </si>
   <si>
     <t>For keeping time.</t>
-  </si>
-  <si>
-    <t>For managing power.</t>
   </si>
   <si>
     <t>Dual o-ring seal against the tube.</t>
@@ -1292,11 +1286,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27939F0E-BC23-4F8A-AA1D-D2FCDAD892C2}">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1315,11 +1309,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" s="81">
-        <f>SUM(F4:F25)</f>
-        <v>350.9</v>
+        <f>SUM(F4:F24)</f>
+        <v>330.95</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -1348,7 +1342,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>13</v>
@@ -1356,7 +1350,7 @@
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="82" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B3" s="83"/>
       <c r="C3" s="83"/>
@@ -1387,7 +1381,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H4" s="14"/>
     </row>
@@ -1408,11 +1402,11 @@
         <v>1</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" ref="F5:F25" si="0">D5*E5</f>
+        <f t="shared" ref="F5:F24" si="0">D5*E5</f>
         <v>11.95</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" s="14"/>
     </row>
@@ -1437,7 +1431,7 @@
         <v>4.5</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" s="14"/>
     </row>
@@ -1462,7 +1456,7 @@
         <v>5.95</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H7" s="14"/>
     </row>
@@ -1487,7 +1481,7 @@
         <v>2.5</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H8" s="14"/>
     </row>
@@ -1512,7 +1506,7 @@
         <v>5.9</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H9" s="14"/>
     </row>
@@ -1537,435 +1531,424 @@
         <v>14.95</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="6">
-        <v>4114</v>
+        <v>2141</v>
       </c>
       <c r="D11" s="7">
-        <v>19.95</v>
+        <v>2.75</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" si="0"/>
-        <v>19.95</v>
+        <v>2.75</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="6">
-        <v>2141</v>
+        <v>17</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="D12" s="7">
-        <v>2.75</v>
+        <v>12.99</v>
       </c>
       <c r="E12" s="6">
         <v>1</v>
       </c>
       <c r="F12" s="7">
         <f t="shared" si="0"/>
-        <v>2.75</v>
+        <v>12.99</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="C13" s="6" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D13" s="7">
-        <v>12.99</v>
+        <v>5.49</v>
       </c>
       <c r="E13" s="6">
         <v>1</v>
       </c>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
-        <v>12.99</v>
+        <v>5.49</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H13" s="14"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="D14" s="7">
-        <v>5.49</v>
+        <v>7.99</v>
       </c>
       <c r="E14" s="6">
         <v>1</v>
       </c>
       <c r="F14" s="7">
         <f t="shared" si="0"/>
-        <v>5.49</v>
+        <v>7.99</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="H14" s="14"/>
     </row>
-    <row r="15" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="D15" s="7">
-        <v>7.99</v>
+        <v>24</v>
       </c>
       <c r="E15" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="7">
         <f t="shared" si="0"/>
-        <v>7.99</v>
+        <v>48</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="C16" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" s="7">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E16" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="7">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="D17" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E17" s="6">
         <v>1</v>
       </c>
       <c r="F17" s="7">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" s="7">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E18" s="6">
         <v>1</v>
       </c>
       <c r="F18" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D19" s="7">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E19" s="6">
         <v>1</v>
       </c>
       <c r="F19" s="7">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D20" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E20" s="6">
         <v>1</v>
       </c>
       <c r="F20" s="7">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D21" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E21" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H21" s="14"/>
     </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>38</v>
+        <v>63</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="D22" s="7">
-        <v>4</v>
+        <v>69.989999999999995</v>
       </c>
       <c r="E22" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>69.989999999999995</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="7">
-        <v>69.989999999999995</v>
+        <v>17</v>
       </c>
       <c r="E23" s="6">
         <v>1</v>
       </c>
       <c r="F23" s="7">
         <f t="shared" si="0"/>
-        <v>69.989999999999995</v>
+        <v>17</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="H23" s="14"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="7">
+    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="6">
+      <c r="C24" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="18">
+        <v>21.99</v>
+      </c>
+      <c r="E24" s="16">
         <v>1</v>
       </c>
-      <c r="F24" s="7">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="H24" s="14"/>
-    </row>
-    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D25" s="18">
-        <v>21.99</v>
-      </c>
-      <c r="E25" s="16">
-        <v>1</v>
-      </c>
-      <c r="F25" s="18">
+      <c r="F24" s="18">
         <f t="shared" si="0"/>
         <v>21.99</v>
       </c>
-      <c r="G25" s="24"/>
-      <c r="H25" s="19"/>
-    </row>
-    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="91" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="92"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="93"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="19"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="93"/>
+    </row>
+    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="A27" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="47">
+        <v>3</v>
+      </c>
+      <c r="E27" s="45">
+        <v>2</v>
+      </c>
+      <c r="F27" s="47"/>
+      <c r="G27" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" s="50"/>
     </row>
     <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A28" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="47">
-        <v>3</v>
-      </c>
-      <c r="E28" s="45">
-        <v>2</v>
-      </c>
-      <c r="F28" s="47"/>
-      <c r="G28" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="H28" s="50"/>
-    </row>
-    <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A29" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="H29" s="52"/>
+      <c r="A28" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" s="52"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" s="54"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="53" t="s">
@@ -1977,74 +1960,74 @@
       <c r="E30" s="29"/>
       <c r="F30" s="30"/>
       <c r="G30" s="31" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H30" s="54"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="H31" s="54"/>
-    </row>
-    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="58" t="s">
+    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="H31" s="59"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="86"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="87"/>
+    </row>
+    <row r="34" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="43">
+        <v>13.99</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="43"/>
+      <c r="G34" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="H34" s="61"/>
+    </row>
+    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="H32" s="59"/>
-    </row>
-    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="85" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="86"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="87"/>
-    </row>
-    <row r="35" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="43">
-        <v>13.99</v>
-      </c>
-      <c r="E35" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="F35" s="43"/>
-      <c r="G35" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="H35" s="61"/>
-    </row>
-    <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H35" s="63"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="62" t="s">
         <v>44</v>
       </c>
@@ -2054,13 +2037,13 @@
       <c r="E36" s="32"/>
       <c r="F36" s="33"/>
       <c r="G36" s="34" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H36" s="63"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="62" t="s">
-        <v>45</v>
+      <c r="A37" s="64" t="s">
+        <v>46</v>
       </c>
       <c r="B37" s="32"/>
       <c r="C37" s="32"/>
@@ -2068,154 +2051,143 @@
       <c r="E37" s="32"/>
       <c r="F37" s="33"/>
       <c r="G37" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="H37" s="63"/>
+    </row>
+    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="H37" s="63"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="64" t="s">
+      <c r="H38" s="69"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="H38" s="63"/>
-    </row>
-    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="66"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="H39" s="69"/>
-    </row>
-    <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="88" t="s">
+      <c r="B40" s="89"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="90"/>
+    </row>
+    <row r="41" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="89"/>
-      <c r="C41" s="89"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="90"/>
-    </row>
-    <row r="42" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="70" t="s">
+      <c r="B41" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="38" t="s">
+      <c r="D41" s="39">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E41" s="38">
+        <v>1</v>
+      </c>
+      <c r="F41" s="39"/>
+      <c r="G41" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="39">
-        <v>17.989999999999998</v>
-      </c>
-      <c r="E42" s="38">
+      <c r="H41" s="71"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="36">
+        <v>6.45</v>
+      </c>
+      <c r="E42" s="35">
         <v>1</v>
       </c>
-      <c r="F42" s="39"/>
-      <c r="G42" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="H42" s="71"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="H42" s="73"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="72" t="s">
+      <c r="A43" s="74" t="s">
         <v>52</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D43" s="36">
-        <v>6.45</v>
+        <v>4.99</v>
       </c>
       <c r="E43" s="35">
         <v>1</v>
       </c>
       <c r="F43" s="36"/>
       <c r="G43" s="37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H43" s="73"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="D44" s="36">
-        <v>4.99</v>
-      </c>
-      <c r="E44" s="35">
-        <v>1</v>
-      </c>
+      <c r="A44" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="35"/>
       <c r="F44" s="36"/>
       <c r="G44" s="37" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="H44" s="73"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="75" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
       <c r="D45" s="36"/>
       <c r="E45" s="35"/>
       <c r="F45" s="36"/>
-      <c r="G45" s="37" t="s">
-        <v>106</v>
-      </c>
+      <c r="G45" s="37"/>
       <c r="H45" s="73"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="75" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="73"/>
-    </row>
-    <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="76" t="s">
-        <v>57</v>
-      </c>
-      <c r="B47" s="77"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="78"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="79"/>
-      <c r="H47" s="80"/>
+    <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="77"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="78"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="78"/>
+      <c r="G46" s="79"/>
+      <c r="H46" s="80"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D48" s="2"/>
@@ -2234,16 +2206,13 @@
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D54" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="A26:H26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{E0B9D346-82E6-4454-BB15-8EEC4E3472B3}"/>
@@ -2253,32 +2222,31 @@
     <hyperlink ref="A7" r:id="rId5" xr:uid="{C777F419-F6D6-4839-ADE3-9D3CC580A9A0}"/>
     <hyperlink ref="A8" r:id="rId6" xr:uid="{3B5E2438-E377-447A-89A7-005593CD72E0}"/>
     <hyperlink ref="A10" r:id="rId7" xr:uid="{2C72E92E-F1DB-4943-A94D-BF25F93C98A5}"/>
-    <hyperlink ref="A11" r:id="rId8" xr:uid="{9C40534E-1A70-4398-B2BF-576716D8F161}"/>
-    <hyperlink ref="A13" r:id="rId9" xr:uid="{0AEC0617-D886-4385-BD4B-8F509CF82AAA}"/>
-    <hyperlink ref="A15" r:id="rId10" xr:uid="{D93BBF9B-964D-4F4B-95F6-99FCCFADE3FB}"/>
-    <hyperlink ref="A18" r:id="rId11" xr:uid="{635EC579-FE8E-4C86-BE11-401C03AE77D1}"/>
-    <hyperlink ref="A19" r:id="rId12" xr:uid="{023383FC-229D-4C7E-AEE3-DB1F332F8B1E}"/>
-    <hyperlink ref="A16" r:id="rId13" xr:uid="{01B0B25D-780F-4456-AF4E-1953A35B88C0}"/>
-    <hyperlink ref="A17" r:id="rId14" xr:uid="{36BEF4B1-C22A-4323-BDFB-39163AEFD519}"/>
-    <hyperlink ref="A20" r:id="rId15" xr:uid="{3A1AFEA7-264C-4020-8F7E-62B80DB7D2BE}"/>
-    <hyperlink ref="A21" r:id="rId16" xr:uid="{2E0F097F-92E7-4E01-AC6B-D2206BB40A7A}"/>
-    <hyperlink ref="A22" r:id="rId17" xr:uid="{10C594D4-14A3-4741-B717-83052185FEA2}"/>
-    <hyperlink ref="A35" r:id="rId18" xr:uid="{EFEC596A-A859-45C9-B449-B01D28E35B03}"/>
-    <hyperlink ref="A42" r:id="rId19" xr:uid="{F62E95EC-7351-4F85-A428-89DE192C8D51}"/>
-    <hyperlink ref="A43" r:id="rId20" xr:uid="{49FA5642-7626-4938-9193-15838A40663D}"/>
-    <hyperlink ref="A44" r:id="rId21" xr:uid="{6AD9CC1F-D06C-4A23-8BF0-FE99D2E1252B}"/>
-    <hyperlink ref="A12" r:id="rId22" xr:uid="{DB5C518D-15FA-4204-8BC2-54930BF3B26C}"/>
-    <hyperlink ref="A23" r:id="rId23" xr:uid="{8EE85784-085F-4688-ADC8-AA7284874CB0}"/>
-    <hyperlink ref="A24" r:id="rId24" xr:uid="{3208E0D2-CB66-4555-BEBD-A74C92F02198}"/>
-    <hyperlink ref="A14" r:id="rId25" xr:uid="{61C10C14-0B88-4C20-8A08-A6C3B4DF4A0D}"/>
-    <hyperlink ref="A31" r:id="rId26" display="AA Batteries " xr:uid="{3B42B57C-45AE-4882-963A-0FBA125919A9}"/>
-    <hyperlink ref="A32" r:id="rId27" display="Kester 0.8mm Rosin Core Solder" xr:uid="{C398C1EC-55BA-4CCD-84EC-3838698C2676}"/>
-    <hyperlink ref="A36" r:id="rId28" xr:uid="{B8FD3279-53D4-4426-83C7-BD61CC0ABDF0}"/>
-    <hyperlink ref="A37" r:id="rId29" xr:uid="{FC28907E-1229-4D42-92B6-9ABD93CFAE70}"/>
-    <hyperlink ref="A28" r:id="rId30" xr:uid="{C0A14886-01A4-4F3F-AE30-F712E50A7925}"/>
-    <hyperlink ref="A25" r:id="rId31" xr:uid="{9C4A64D6-9CA5-4F0E-AB1D-71E88779E7A6}"/>
+    <hyperlink ref="A12" r:id="rId8" xr:uid="{0AEC0617-D886-4385-BD4B-8F509CF82AAA}"/>
+    <hyperlink ref="A14" r:id="rId9" xr:uid="{D93BBF9B-964D-4F4B-95F6-99FCCFADE3FB}"/>
+    <hyperlink ref="A17" r:id="rId10" xr:uid="{635EC579-FE8E-4C86-BE11-401C03AE77D1}"/>
+    <hyperlink ref="A18" r:id="rId11" xr:uid="{023383FC-229D-4C7E-AEE3-DB1F332F8B1E}"/>
+    <hyperlink ref="A15" r:id="rId12" xr:uid="{01B0B25D-780F-4456-AF4E-1953A35B88C0}"/>
+    <hyperlink ref="A16" r:id="rId13" xr:uid="{36BEF4B1-C22A-4323-BDFB-39163AEFD519}"/>
+    <hyperlink ref="A19" r:id="rId14" xr:uid="{3A1AFEA7-264C-4020-8F7E-62B80DB7D2BE}"/>
+    <hyperlink ref="A20" r:id="rId15" xr:uid="{2E0F097F-92E7-4E01-AC6B-D2206BB40A7A}"/>
+    <hyperlink ref="A21" r:id="rId16" xr:uid="{10C594D4-14A3-4741-B717-83052185FEA2}"/>
+    <hyperlink ref="A34" r:id="rId17" xr:uid="{EFEC596A-A859-45C9-B449-B01D28E35B03}"/>
+    <hyperlink ref="A41" r:id="rId18" xr:uid="{F62E95EC-7351-4F85-A428-89DE192C8D51}"/>
+    <hyperlink ref="A42" r:id="rId19" xr:uid="{49FA5642-7626-4938-9193-15838A40663D}"/>
+    <hyperlink ref="A43" r:id="rId20" xr:uid="{6AD9CC1F-D06C-4A23-8BF0-FE99D2E1252B}"/>
+    <hyperlink ref="A11" r:id="rId21" xr:uid="{DB5C518D-15FA-4204-8BC2-54930BF3B26C}"/>
+    <hyperlink ref="A22" r:id="rId22" xr:uid="{8EE85784-085F-4688-ADC8-AA7284874CB0}"/>
+    <hyperlink ref="A23" r:id="rId23" xr:uid="{3208E0D2-CB66-4555-BEBD-A74C92F02198}"/>
+    <hyperlink ref="A13" r:id="rId24" xr:uid="{61C10C14-0B88-4C20-8A08-A6C3B4DF4A0D}"/>
+    <hyperlink ref="A30" r:id="rId25" display="AA Batteries " xr:uid="{3B42B57C-45AE-4882-963A-0FBA125919A9}"/>
+    <hyperlink ref="A31" r:id="rId26" display="Kester 0.8mm Rosin Core Solder" xr:uid="{C398C1EC-55BA-4CCD-84EC-3838698C2676}"/>
+    <hyperlink ref="A35" r:id="rId27" xr:uid="{B8FD3279-53D4-4426-83C7-BD61CC0ABDF0}"/>
+    <hyperlink ref="A36" r:id="rId28" xr:uid="{FC28907E-1229-4D42-92B6-9ABD93CFAE70}"/>
+    <hyperlink ref="A27" r:id="rId29" xr:uid="{C0A14886-01A4-4F3F-AE30-F712E50A7925}"/>
+    <hyperlink ref="A24" r:id="rId30" xr:uid="{9C4A64D6-9CA5-4F0E-AB1D-71E88779E7A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId32"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId31"/>
 </worksheet>
 </file>
--- a/documentation/build.xlsx
+++ b/documentation/build.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Documents\GitHub\corona_cam\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCD36E8-699C-41E9-877C-4F1883A2D319}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C163559A-7665-4998-9B56-47000153AD32}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BFA8654B-9BE4-4811-B5B6-CC71729ADED4}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="111">
   <si>
     <t>Part</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Raspberry Pi Zero v1.3 Camera Cable</t>
   </si>
   <si>
-    <t>GPIO Stacking Header for Pi - Extra Long</t>
-  </si>
-  <si>
     <t>Stacking Header for Pi - Extra Tall</t>
   </si>
   <si>
@@ -90,12 +87,6 @@
     <t>NLLZLM320PM25</t>
   </si>
   <si>
-    <t>AA Battery Holders (6 batteries per)</t>
-  </si>
-  <si>
-    <t>B019P0VDRO</t>
-  </si>
-  <si>
     <t>3" Flange</t>
   </si>
   <si>
@@ -261,9 +252,6 @@
     <t>For connecting the camera to the RPi.</t>
   </si>
   <si>
-    <t>For connecting the Zero2Go Omini to the Pi.</t>
-  </si>
-  <si>
     <t>For connecting the Protoboard to the Pi.</t>
   </si>
   <si>
@@ -348,13 +336,34 @@
     <t>Helps with initial set up , unless you are SSH savvy.</t>
   </si>
   <si>
-    <t>I used two 6x holders tied in parallel. If you use rechargeable AAs, the Zero2Go might complain because the input voltage would be 7.2v instead of 9v. The upside of lithium ion batteries is that they maintain a steady voltage then drop off rapidly, while alkaline batteries tend to decrease steadily. If you want to use lithium ion rechargeables, you might be able to get away with fitting two 8x holders in the case https://www.amazon.com/LAMPVPATH-Pack-Battery-Holder-Leads/dp/B07BX5C6K5/ref=sr_1_10?dchild=1&amp;keywords=8+aa+holder&amp;qid=1586144621&amp;s=electronics&amp;sr=1-10.</t>
-  </si>
-  <si>
     <t>microSD card - 128GB</t>
   </si>
   <si>
     <t>B06XWZWYVP</t>
+  </si>
+  <si>
+    <t>Breakaway Headers</t>
+  </si>
+  <si>
+    <t>Soldered to Pi.</t>
+  </si>
+  <si>
+    <t>Anker 10000mAh Power Pack</t>
+  </si>
+  <si>
+    <t>B07PXMF52C</t>
+  </si>
+  <si>
+    <t>For powering the pi.</t>
+  </si>
+  <si>
+    <t>Right Angle microUSB Cable</t>
+  </si>
+  <si>
+    <t>Right angle allows for clearance to the case. An upward one might allow for connection to the PWR microUSB port, otherwise, use of the USB USB port is okay.</t>
+  </si>
+  <si>
+    <t>Third Hand</t>
   </si>
 </sst>
 </file>
@@ -419,7 +428,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,8 +459,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -647,16 +662,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -666,22 +681,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -690,7 +690,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -749,9 +749,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -932,18 +929,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -969,6 +954,42 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1286,11 +1307,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27939F0E-BC23-4F8A-AA1D-D2FCDAD892C2}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11:XFD11"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1301,32 +1322,32 @@
     <col min="4" max="4" width="15.44140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="6.77734375" style="2" customWidth="1"/>
     <col min="6" max="6" width="14" style="3" customWidth="1"/>
-    <col min="7" max="7" width="49.77734375" style="25" customWidth="1"/>
+    <col min="7" max="7" width="49.77734375" style="24" customWidth="1"/>
     <col min="8" max="8" width="18.88671875" style="2" customWidth="1"/>
     <col min="9" max="9" width="8.88671875" style="2" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="81">
-        <f>SUM(F4:F24)</f>
-        <v>330.95</v>
-      </c>
-      <c r="C1" s="4"/>
+    <row r="1" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="99" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="100">
+        <f>SUM(F4:F25)</f>
+        <v>371.40000000000003</v>
+      </c>
+      <c r="C1" s="97"/>
       <c r="D1" s="5"/>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
-      <c r="G1" s="21"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="98" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -1341,49 +1362,49 @@
       <c r="F2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="22" t="s">
-        <v>15</v>
+      <c r="G2" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="82" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="96"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="90">
         <v>3400</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="91">
         <v>10</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="90">
         <v>1</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="91">
         <f>D4*E4</f>
         <v>10</v>
       </c>
-      <c r="G4" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="14"/>
+      <c r="G4" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="93"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
@@ -1402,11 +1423,11 @@
         <v>1</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" ref="F5:F24" si="0">D5*E5</f>
+        <f t="shared" ref="F5:F25" si="0">D5*E5</f>
         <v>11.95</v>
       </c>
-      <c r="G5" s="23" t="s">
-        <v>73</v>
+      <c r="G5" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="H5" s="14"/>
     </row>
@@ -1430,8 +1451,8 @@
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>74</v>
+      <c r="G6" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="H6" s="14"/>
     </row>
@@ -1455,8 +1476,8 @@
         <f t="shared" si="0"/>
         <v>5.95</v>
       </c>
-      <c r="G7" s="23" t="s">
-        <v>75</v>
+      <c r="G7" s="22" t="s">
+        <v>72</v>
       </c>
       <c r="H7" s="14"/>
     </row>
@@ -1468,170 +1489,170 @@
         <v>7</v>
       </c>
       <c r="C8" s="6">
-        <v>2223</v>
+        <v>1979</v>
       </c>
       <c r="D8" s="7">
-        <v>2.5</v>
+        <v>2.95</v>
       </c>
       <c r="E8" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="7">
         <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>76</v>
+        <v>5.9</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>73</v>
       </c>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="6">
-        <v>1979</v>
+        <v>4282</v>
       </c>
       <c r="D9" s="7">
-        <v>2.95</v>
+        <v>14.95</v>
       </c>
       <c r="E9" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="7">
         <f t="shared" si="0"/>
-        <v>5.9</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>77</v>
+        <v>14.95</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="6">
-        <v>4282</v>
+        <v>2141</v>
       </c>
       <c r="D10" s="7">
-        <v>14.95</v>
+        <v>2.75</v>
       </c>
       <c r="E10" s="6">
         <v>1</v>
       </c>
       <c r="F10" s="7">
         <f t="shared" si="0"/>
-        <v>14.95</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>78</v>
+        <v>2.75</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="6">
-        <v>2141</v>
+        <v>16</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="D11" s="7">
-        <v>2.75</v>
+        <v>12.99</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" si="0"/>
-        <v>2.75</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>60</v>
+        <v>12.99</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>69</v>
       </c>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="C12" s="6" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="D12" s="7">
-        <v>12.99</v>
+        <v>5.49</v>
       </c>
       <c r="E12" s="6">
         <v>1</v>
       </c>
       <c r="F12" s="7">
         <f t="shared" si="0"/>
-        <v>12.99</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>72</v>
+        <v>5.49</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>68</v>
       </c>
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>70</v>
+        <v>7</v>
+      </c>
+      <c r="C13" s="6">
+        <v>392</v>
       </c>
       <c r="D13" s="7">
-        <v>5.49</v>
+        <v>4.95</v>
       </c>
       <c r="E13" s="6">
         <v>1</v>
       </c>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
-        <v>5.49</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>71</v>
+        <v>4.95</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>104</v>
       </c>
       <c r="H13" s="14"/>
     </row>
-    <row r="14" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="7">
-        <v>7.99</v>
+        <v>24</v>
       </c>
       <c r="E14" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="7">
         <f t="shared" si="0"/>
-        <v>7.99</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>105</v>
+        <v>48</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>75</v>
       </c>
       <c r="H14" s="14"/>
     </row>
@@ -1640,173 +1661,173 @@
         <v>21</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="D15" s="7">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E15" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="7">
         <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>79</v>
+        <v>12</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>76</v>
       </c>
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="D16" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E16" s="6">
         <v>1</v>
       </c>
       <c r="F16" s="7">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>80</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>76</v>
       </c>
       <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="D17" s="7">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E17" s="6">
         <v>1</v>
       </c>
       <c r="F17" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>80</v>
+        <v>35</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>77</v>
       </c>
       <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" s="7">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E18" s="6">
         <v>1</v>
       </c>
       <c r="F18" s="7">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>81</v>
+        <v>15</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>78</v>
       </c>
       <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>33</v>
-      </c>
       <c r="D19" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E19" s="6">
         <v>1</v>
       </c>
       <c r="F19" s="7">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>82</v>
+        <v>9</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>79</v>
       </c>
       <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="D20" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E20" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>83</v>
+        <v>8</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>80</v>
       </c>
       <c r="H20" s="14"/>
     </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>37</v>
+        <v>60</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="D21" s="7">
-        <v>4</v>
+        <v>69.989999999999995</v>
       </c>
       <c r="E21" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>84</v>
+        <v>69.989999999999995</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="H21" s="14"/>
     </row>
@@ -1815,382 +1836,411 @@
         <v>62</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="7">
-        <v>69.989999999999995</v>
+        <v>17</v>
       </c>
       <c r="E22" s="6">
         <v>1</v>
       </c>
       <c r="F22" s="7">
         <f t="shared" si="0"/>
-        <v>69.989999999999995</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>64</v>
+        <v>17</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>92</v>
       </c>
       <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="D23" s="7">
-        <v>17</v>
+        <v>21.99</v>
       </c>
       <c r="E23" s="6">
         <v>1</v>
       </c>
       <c r="F23" s="7">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="G23" s="23" t="s">
+        <v>21.99</v>
+      </c>
+      <c r="G23" s="22"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="7">
+        <v>33.99</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="7">
+        <f t="shared" si="0"/>
+        <v>33.99</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18">
+        <v>12</v>
+      </c>
+      <c r="E25" s="16">
+        <v>1</v>
+      </c>
+      <c r="F25" s="18">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="19"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="88"/>
+    </row>
+    <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="A28" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="46">
+        <v>3</v>
+      </c>
+      <c r="E28" s="44">
+        <v>2</v>
+      </c>
+      <c r="F28" s="46"/>
+      <c r="G28" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="49"/>
+    </row>
+    <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="A29" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="26"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" s="51"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="H30" s="53"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" s="53"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32" s="58"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="81"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="82"/>
+    </row>
+    <row r="35" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="42">
+        <v>13.99</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" s="42"/>
+      <c r="G35" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="H35" s="60"/>
+    </row>
+    <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36" s="62"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="H23" s="14"/>
-    </row>
-    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" s="18">
-        <v>21.99</v>
-      </c>
-      <c r="E24" s="16">
+      <c r="H37" s="62"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H38" s="62"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="H39" s="62"/>
+    </row>
+    <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="68"/>
+    </row>
+    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="84"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="84"/>
+      <c r="F42" s="84"/>
+      <c r="G42" s="84"/>
+      <c r="H42" s="85"/>
+    </row>
+    <row r="43" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="38">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E43" s="37">
         <v>1</v>
       </c>
-      <c r="F24" s="18">
-        <f t="shared" si="0"/>
-        <v>21.99</v>
-      </c>
-      <c r="G24" s="24"/>
-      <c r="H24" s="19"/>
-    </row>
-    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="92"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="93"/>
-    </row>
-    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A27" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="47">
-        <v>3</v>
-      </c>
-      <c r="E27" s="45">
-        <v>2</v>
-      </c>
-      <c r="F27" s="47"/>
-      <c r="G27" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="H27" s="50"/>
-    </row>
-    <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A28" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="H28" s="52"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="31" t="s">
+      <c r="F43" s="38"/>
+      <c r="G43" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="H43" s="70"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="35">
+        <v>6.45</v>
+      </c>
+      <c r="E44" s="34">
+        <v>1</v>
+      </c>
+      <c r="F44" s="35"/>
+      <c r="G44" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="H44" s="72"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="35">
+        <v>4.99</v>
+      </c>
+      <c r="E45" s="34">
+        <v>1</v>
+      </c>
+      <c r="F45" s="35"/>
+      <c r="G45" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="H29" s="54"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="H30" s="54"/>
-    </row>
-    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="H31" s="59"/>
-    </row>
-    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="85" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="87"/>
-    </row>
-    <row r="34" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="43">
-        <v>13.99</v>
-      </c>
-      <c r="E34" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="F34" s="43"/>
-      <c r="G34" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="H34" s="61"/>
-    </row>
-    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="H35" s="63"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="34" t="s">
+      <c r="H45" s="72"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="H36" s="63"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="H37" s="63"/>
-    </row>
-    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="66"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="68" t="s">
-        <v>102</v>
-      </c>
-      <c r="H38" s="69"/>
-    </row>
-    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="40" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="88" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="89"/>
-      <c r="C40" s="89"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="90"/>
-    </row>
-    <row r="41" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="70" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="39">
-        <v>17.989999999999998</v>
-      </c>
-      <c r="E41" s="38">
-        <v>1</v>
-      </c>
-      <c r="F41" s="39"/>
-      <c r="G41" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="H41" s="71"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="35" t="s">
+      <c r="H46" s="72"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="36">
-        <v>6.45</v>
-      </c>
-      <c r="E42" s="35">
-        <v>1</v>
-      </c>
-      <c r="F42" s="36"/>
-      <c r="G42" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="H42" s="73"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="35" t="s">
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="72"/>
+    </row>
+    <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="36">
-        <v>4.99</v>
-      </c>
-      <c r="E43" s="35">
-        <v>1</v>
-      </c>
-      <c r="F43" s="36"/>
-      <c r="G43" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="H43" s="73"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="75" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="H44" s="73"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="75" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="73"/>
-    </row>
-    <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="76" t="s">
-        <v>56</v>
-      </c>
-      <c r="B46" s="77"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="78"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="79"/>
-      <c r="H46" s="80"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D48" s="2"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="79"/>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D49" s="2"/>
@@ -2206,47 +2256,54 @@
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D55" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A27:H27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{E0B9D346-82E6-4454-BB15-8EEC4E3472B3}"/>
     <hyperlink ref="A5" r:id="rId2" xr:uid="{C6E6662E-F067-4BDD-A479-C82070EECCCF}"/>
     <hyperlink ref="A6" r:id="rId3" xr:uid="{AF91BF95-B318-4728-9321-154770452E4D}"/>
-    <hyperlink ref="A9" r:id="rId4" xr:uid="{793AB1C4-AACE-45D4-9E42-119E552E2A6D}"/>
+    <hyperlink ref="A8" r:id="rId4" xr:uid="{793AB1C4-AACE-45D4-9E42-119E552E2A6D}"/>
     <hyperlink ref="A7" r:id="rId5" xr:uid="{C777F419-F6D6-4839-ADE3-9D3CC580A9A0}"/>
-    <hyperlink ref="A8" r:id="rId6" xr:uid="{3B5E2438-E377-447A-89A7-005593CD72E0}"/>
-    <hyperlink ref="A10" r:id="rId7" xr:uid="{2C72E92E-F1DB-4943-A94D-BF25F93C98A5}"/>
-    <hyperlink ref="A12" r:id="rId8" xr:uid="{0AEC0617-D886-4385-BD4B-8F509CF82AAA}"/>
-    <hyperlink ref="A14" r:id="rId9" xr:uid="{D93BBF9B-964D-4F4B-95F6-99FCCFADE3FB}"/>
-    <hyperlink ref="A17" r:id="rId10" xr:uid="{635EC579-FE8E-4C86-BE11-401C03AE77D1}"/>
-    <hyperlink ref="A18" r:id="rId11" xr:uid="{023383FC-229D-4C7E-AEE3-DB1F332F8B1E}"/>
-    <hyperlink ref="A15" r:id="rId12" xr:uid="{01B0B25D-780F-4456-AF4E-1953A35B88C0}"/>
-    <hyperlink ref="A16" r:id="rId13" xr:uid="{36BEF4B1-C22A-4323-BDFB-39163AEFD519}"/>
-    <hyperlink ref="A19" r:id="rId14" xr:uid="{3A1AFEA7-264C-4020-8F7E-62B80DB7D2BE}"/>
-    <hyperlink ref="A20" r:id="rId15" xr:uid="{2E0F097F-92E7-4E01-AC6B-D2206BB40A7A}"/>
-    <hyperlink ref="A21" r:id="rId16" xr:uid="{10C594D4-14A3-4741-B717-83052185FEA2}"/>
-    <hyperlink ref="A34" r:id="rId17" xr:uid="{EFEC596A-A859-45C9-B449-B01D28E35B03}"/>
-    <hyperlink ref="A41" r:id="rId18" xr:uid="{F62E95EC-7351-4F85-A428-89DE192C8D51}"/>
-    <hyperlink ref="A42" r:id="rId19" xr:uid="{49FA5642-7626-4938-9193-15838A40663D}"/>
-    <hyperlink ref="A43" r:id="rId20" xr:uid="{6AD9CC1F-D06C-4A23-8BF0-FE99D2E1252B}"/>
-    <hyperlink ref="A11" r:id="rId21" xr:uid="{DB5C518D-15FA-4204-8BC2-54930BF3B26C}"/>
-    <hyperlink ref="A22" r:id="rId22" xr:uid="{8EE85784-085F-4688-ADC8-AA7284874CB0}"/>
-    <hyperlink ref="A23" r:id="rId23" xr:uid="{3208E0D2-CB66-4555-BEBD-A74C92F02198}"/>
-    <hyperlink ref="A13" r:id="rId24" xr:uid="{61C10C14-0B88-4C20-8A08-A6C3B4DF4A0D}"/>
-    <hyperlink ref="A30" r:id="rId25" display="AA Batteries " xr:uid="{3B42B57C-45AE-4882-963A-0FBA125919A9}"/>
-    <hyperlink ref="A31" r:id="rId26" display="Kester 0.8mm Rosin Core Solder" xr:uid="{C398C1EC-55BA-4CCD-84EC-3838698C2676}"/>
-    <hyperlink ref="A35" r:id="rId27" xr:uid="{B8FD3279-53D4-4426-83C7-BD61CC0ABDF0}"/>
-    <hyperlink ref="A36" r:id="rId28" xr:uid="{FC28907E-1229-4D42-92B6-9ABD93CFAE70}"/>
-    <hyperlink ref="A27" r:id="rId29" xr:uid="{C0A14886-01A4-4F3F-AE30-F712E50A7925}"/>
-    <hyperlink ref="A24" r:id="rId30" xr:uid="{9C4A64D6-9CA5-4F0E-AB1D-71E88779E7A6}"/>
+    <hyperlink ref="A9" r:id="rId6" xr:uid="{2C72E92E-F1DB-4943-A94D-BF25F93C98A5}"/>
+    <hyperlink ref="A11" r:id="rId7" xr:uid="{0AEC0617-D886-4385-BD4B-8F509CF82AAA}"/>
+    <hyperlink ref="A13" r:id="rId8" xr:uid="{D93BBF9B-964D-4F4B-95F6-99FCCFADE3FB}"/>
+    <hyperlink ref="A16" r:id="rId9" xr:uid="{635EC579-FE8E-4C86-BE11-401C03AE77D1}"/>
+    <hyperlink ref="A17" r:id="rId10" xr:uid="{023383FC-229D-4C7E-AEE3-DB1F332F8B1E}"/>
+    <hyperlink ref="A14" r:id="rId11" xr:uid="{01B0B25D-780F-4456-AF4E-1953A35B88C0}"/>
+    <hyperlink ref="A15" r:id="rId12" xr:uid="{36BEF4B1-C22A-4323-BDFB-39163AEFD519}"/>
+    <hyperlink ref="A18" r:id="rId13" xr:uid="{3A1AFEA7-264C-4020-8F7E-62B80DB7D2BE}"/>
+    <hyperlink ref="A19" r:id="rId14" xr:uid="{2E0F097F-92E7-4E01-AC6B-D2206BB40A7A}"/>
+    <hyperlink ref="A20" r:id="rId15" xr:uid="{10C594D4-14A3-4741-B717-83052185FEA2}"/>
+    <hyperlink ref="A35" r:id="rId16" xr:uid="{EFEC596A-A859-45C9-B449-B01D28E35B03}"/>
+    <hyperlink ref="A43" r:id="rId17" xr:uid="{F62E95EC-7351-4F85-A428-89DE192C8D51}"/>
+    <hyperlink ref="A44" r:id="rId18" xr:uid="{49FA5642-7626-4938-9193-15838A40663D}"/>
+    <hyperlink ref="A45" r:id="rId19" xr:uid="{6AD9CC1F-D06C-4A23-8BF0-FE99D2E1252B}"/>
+    <hyperlink ref="A10" r:id="rId20" xr:uid="{DB5C518D-15FA-4204-8BC2-54930BF3B26C}"/>
+    <hyperlink ref="A21" r:id="rId21" xr:uid="{8EE85784-085F-4688-ADC8-AA7284874CB0}"/>
+    <hyperlink ref="A22" r:id="rId22" xr:uid="{3208E0D2-CB66-4555-BEBD-A74C92F02198}"/>
+    <hyperlink ref="A12" r:id="rId23" xr:uid="{61C10C14-0B88-4C20-8A08-A6C3B4DF4A0D}"/>
+    <hyperlink ref="A31" r:id="rId24" display="AA Batteries " xr:uid="{3B42B57C-45AE-4882-963A-0FBA125919A9}"/>
+    <hyperlink ref="A32" r:id="rId25" display="Kester 0.8mm Rosin Core Solder" xr:uid="{C398C1EC-55BA-4CCD-84EC-3838698C2676}"/>
+    <hyperlink ref="A36" r:id="rId26" xr:uid="{B8FD3279-53D4-4426-83C7-BD61CC0ABDF0}"/>
+    <hyperlink ref="A37" r:id="rId27" xr:uid="{FC28907E-1229-4D42-92B6-9ABD93CFAE70}"/>
+    <hyperlink ref="A28" r:id="rId28" xr:uid="{C0A14886-01A4-4F3F-AE30-F712E50A7925}"/>
+    <hyperlink ref="A23" r:id="rId29" xr:uid="{9C4A64D6-9CA5-4F0E-AB1D-71E88779E7A6}"/>
+    <hyperlink ref="A24" r:id="rId30" xr:uid="{239C3544-DF9C-4617-93B4-BBED15569B07}"/>
+    <hyperlink ref="A25" r:id="rId31" xr:uid="{FDF783C9-87DE-40A0-BECD-7619C252E21A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId31"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId32"/>
 </worksheet>
 </file>
--- a/documentation/build.xlsx
+++ b/documentation/build.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Documents\GitHub\corona_cam\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C163559A-7665-4998-9B56-47000153AD32}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71184F5C-0022-4941-B9AF-C4713A5F680D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BFA8654B-9BE4-4811-B5B6-CC71729ADED4}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="112">
   <si>
     <t>Part</t>
   </si>
@@ -364,6 +364,9 @@
   </si>
   <si>
     <t>Third Hand</t>
+  </si>
+  <si>
+    <t>Heatshrink</t>
   </si>
 </sst>
 </file>
@@ -929,33 +932,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -971,6 +947,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -980,16 +968,31 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1307,11 +1310,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27939F0E-BC23-4F8A-AA1D-D2FCDAD892C2}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1329,14 +1332,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="100">
+      <c r="B1" s="88">
         <f>SUM(F4:F25)</f>
         <v>371.40000000000003</v>
       </c>
-      <c r="C1" s="97"/>
+      <c r="C1" s="85"/>
       <c r="D1" s="5"/>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
@@ -1344,10 +1347,10 @@
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="86" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -1370,41 +1373,41 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="96"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="91"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="90">
+      <c r="C4" s="81">
         <v>3400</v>
       </c>
-      <c r="D4" s="91">
+      <c r="D4" s="82">
         <v>10</v>
       </c>
-      <c r="E4" s="90">
+      <c r="E4" s="81">
         <v>1</v>
       </c>
-      <c r="F4" s="91">
+      <c r="F4" s="82">
         <f>D4*E4</f>
         <v>10</v>
       </c>
-      <c r="G4" s="92" t="s">
+      <c r="G4" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="93"/>
+      <c r="H4" s="84"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
@@ -1929,16 +1932,16 @@
     </row>
     <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="86" t="s">
+      <c r="A27" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="88"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="100"/>
     </row>
     <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="48" t="s">
@@ -2008,72 +2011,70 @@
       </c>
       <c r="H31" s="53"/>
     </row>
-    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="54" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="57" t="s">
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="H32" s="58"/>
-    </row>
-    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="80" t="s">
+      <c r="H32" s="53"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="58"/>
+    </row>
+    <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="81"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="82"/>
-    </row>
-    <row r="35" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="59" t="s">
+      <c r="B35" s="93"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="94"/>
+    </row>
+    <row r="36" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B36" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="C36" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="42">
+      <c r="D36" s="42">
         <v>13.99</v>
       </c>
-      <c r="E35" s="40" t="s">
+      <c r="E36" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="F35" s="42"/>
-      <c r="G35" s="43" t="s">
+      <c r="F36" s="42"/>
+      <c r="G36" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="H35" s="60"/>
-    </row>
-    <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="61" t="s">
+      <c r="H36" s="60"/>
+    </row>
+    <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="61" t="s">
         <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="H36" s="62"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="61" t="s">
-        <v>41</v>
       </c>
       <c r="B37" s="31"/>
       <c r="C37" s="31"/>
@@ -2081,13 +2082,13 @@
       <c r="E37" s="31"/>
       <c r="F37" s="32"/>
       <c r="G37" s="33" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H37" s="62"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="63" t="s">
-        <v>43</v>
+      <c r="A38" s="61" t="s">
+        <v>41</v>
       </c>
       <c r="B38" s="31"/>
       <c r="C38" s="31"/>
@@ -2095,13 +2096,13 @@
       <c r="E38" s="31"/>
       <c r="F38" s="32"/>
       <c r="G38" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H38" s="62"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39" s="31"/>
       <c r="C39" s="31"/>
@@ -2109,165 +2110,179 @@
       <c r="E39" s="31"/>
       <c r="F39" s="32"/>
       <c r="G39" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H39" s="62"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="H39" s="62"/>
-    </row>
-    <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="64" t="s">
+      <c r="H40" s="62"/>
+    </row>
+    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="68"/>
-    </row>
-    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="83" t="s">
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="68"/>
+    </row>
+    <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="84"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="84"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="85"/>
-    </row>
-    <row r="43" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="69" t="s">
+      <c r="B43" s="96"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="97"/>
+    </row>
+    <row r="44" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="37" t="s">
+      <c r="B44" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="37" t="s">
+      <c r="C44" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="38">
+      <c r="D44" s="38">
         <v>17.989999999999998</v>
       </c>
-      <c r="E43" s="37">
+      <c r="E44" s="37">
         <v>1</v>
       </c>
-      <c r="F43" s="38"/>
-      <c r="G43" s="39" t="s">
+      <c r="F44" s="38"/>
+      <c r="G44" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="H43" s="70"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="71" t="s">
+      <c r="H44" s="70"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="71" t="s">
         <v>48</v>
-      </c>
-      <c r="B44" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" s="35">
-        <v>6.45</v>
-      </c>
-      <c r="E44" s="34">
-        <v>1</v>
-      </c>
-      <c r="F44" s="35"/>
-      <c r="G44" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="H44" s="72"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="73" t="s">
-        <v>49</v>
       </c>
       <c r="B45" s="34" t="s">
         <v>16</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D45" s="35">
-        <v>4.99</v>
+        <v>6.45</v>
       </c>
       <c r="E45" s="34">
         <v>1</v>
       </c>
       <c r="F45" s="35"/>
       <c r="G45" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H45" s="72"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="34"/>
+      <c r="A46" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="35">
+        <v>4.99</v>
+      </c>
+      <c r="E46" s="34">
+        <v>1</v>
+      </c>
       <c r="F46" s="35"/>
       <c r="G46" s="36" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="H46" s="72"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="74" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B47" s="34"/>
       <c r="C47" s="34"/>
       <c r="D47" s="35"/>
       <c r="E47" s="34"/>
       <c r="F47" s="35"/>
-      <c r="G47" s="36"/>
+      <c r="G47" s="36" t="s">
+        <v>100</v>
+      </c>
       <c r="H47" s="72"/>
     </row>
-    <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="75" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="72"/>
+    </row>
+    <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="76"/>
-      <c r="C48" s="76"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="76"/>
-      <c r="F48" s="77"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="79"/>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="76"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="78"/>
+      <c r="H49" s="79"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D51" s="2"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D56" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A43:H43"/>
     <mergeCell ref="A27:H27"/>
   </mergeCells>
   <hyperlinks>
@@ -2286,18 +2301,18 @@
     <hyperlink ref="A18" r:id="rId13" xr:uid="{3A1AFEA7-264C-4020-8F7E-62B80DB7D2BE}"/>
     <hyperlink ref="A19" r:id="rId14" xr:uid="{2E0F097F-92E7-4E01-AC6B-D2206BB40A7A}"/>
     <hyperlink ref="A20" r:id="rId15" xr:uid="{10C594D4-14A3-4741-B717-83052185FEA2}"/>
-    <hyperlink ref="A35" r:id="rId16" xr:uid="{EFEC596A-A859-45C9-B449-B01D28E35B03}"/>
-    <hyperlink ref="A43" r:id="rId17" xr:uid="{F62E95EC-7351-4F85-A428-89DE192C8D51}"/>
-    <hyperlink ref="A44" r:id="rId18" xr:uid="{49FA5642-7626-4938-9193-15838A40663D}"/>
-    <hyperlink ref="A45" r:id="rId19" xr:uid="{6AD9CC1F-D06C-4A23-8BF0-FE99D2E1252B}"/>
+    <hyperlink ref="A36" r:id="rId16" xr:uid="{EFEC596A-A859-45C9-B449-B01D28E35B03}"/>
+    <hyperlink ref="A44" r:id="rId17" xr:uid="{F62E95EC-7351-4F85-A428-89DE192C8D51}"/>
+    <hyperlink ref="A45" r:id="rId18" xr:uid="{49FA5642-7626-4938-9193-15838A40663D}"/>
+    <hyperlink ref="A46" r:id="rId19" xr:uid="{6AD9CC1F-D06C-4A23-8BF0-FE99D2E1252B}"/>
     <hyperlink ref="A10" r:id="rId20" xr:uid="{DB5C518D-15FA-4204-8BC2-54930BF3B26C}"/>
     <hyperlink ref="A21" r:id="rId21" xr:uid="{8EE85784-085F-4688-ADC8-AA7284874CB0}"/>
     <hyperlink ref="A22" r:id="rId22" xr:uid="{3208E0D2-CB66-4555-BEBD-A74C92F02198}"/>
     <hyperlink ref="A12" r:id="rId23" xr:uid="{61C10C14-0B88-4C20-8A08-A6C3B4DF4A0D}"/>
     <hyperlink ref="A31" r:id="rId24" display="AA Batteries " xr:uid="{3B42B57C-45AE-4882-963A-0FBA125919A9}"/>
     <hyperlink ref="A32" r:id="rId25" display="Kester 0.8mm Rosin Core Solder" xr:uid="{C398C1EC-55BA-4CCD-84EC-3838698C2676}"/>
-    <hyperlink ref="A36" r:id="rId26" xr:uid="{B8FD3279-53D4-4426-83C7-BD61CC0ABDF0}"/>
-    <hyperlink ref="A37" r:id="rId27" xr:uid="{FC28907E-1229-4D42-92B6-9ABD93CFAE70}"/>
+    <hyperlink ref="A37" r:id="rId26" xr:uid="{B8FD3279-53D4-4426-83C7-BD61CC0ABDF0}"/>
+    <hyperlink ref="A38" r:id="rId27" xr:uid="{FC28907E-1229-4D42-92B6-9ABD93CFAE70}"/>
     <hyperlink ref="A28" r:id="rId28" xr:uid="{C0A14886-01A4-4F3F-AE30-F712E50A7925}"/>
     <hyperlink ref="A23" r:id="rId29" xr:uid="{9C4A64D6-9CA5-4F0E-AB1D-71E88779E7A6}"/>
     <hyperlink ref="A24" r:id="rId30" xr:uid="{239C3544-DF9C-4617-93B4-BBED15569B07}"/>
